--- a/examples/calpine_lbo/calpine_lbo_model.xlsx
+++ b/examples/calpine_lbo/calpine_lbo_model.xlsx
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0</v>
+        <v>537.2</v>
       </c>
       <c r="C6" s="4" t="inlineStr"/>
     </row>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="inlineStr"/>
     </row>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>0</v>
+        <v>27527.2</v>
       </c>
       <c r="C8" s="6" t="inlineStr"/>
     </row>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="C11" s="4" t="inlineStr"/>
     </row>

--- a/examples/calpine_lbo/calpine_lbo_model.xlsx
+++ b/examples/calpine_lbo/calpine_lbo_model.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBO模型" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBO敏感性" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="三表模型" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBO模型" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="敏感性分析" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,6 +455,459 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calpine 财务模型 - </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>利润表</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>科目</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>金额(万元)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>公式</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>营业收入</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>14111</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>last_revenue × (1 + growth_rate)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>营业成本</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9172.15</v>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>revenue × (1 - gross_margin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>毛利</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>4938.85</v>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>revenue - cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>营业费用</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1411.1</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>revenue × opex_ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>营业利润</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>3527.75</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>gross_profit - opex</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>利息费用</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>889.0000000000001</v>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>opening_debt × interest_rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>税前利润</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>2638.75</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>ebit - interest</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>所得税</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>659.6875</v>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>max(ebt, 0) × tax_rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>净利润</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>1979.0625</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>ebt - tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>资产负债表</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>科目</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>金额(万元)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>【资产】</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  现金</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>3114.991714611872</v>
+      </c>
+      <c r="C18" s="4" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  应收账款</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>1237.128767123288</v>
+      </c>
+      <c r="C19" s="4" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  存货</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>276.4209589041096</v>
+      </c>
+      <c r="C20" s="4" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  固定资产净值</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>17453.62133333334</v>
+      </c>
+      <c r="C21" s="4" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>资产合计</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>22082.1627739726</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>【负债】</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  应付账款</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>603.1002739726027</v>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  有息负债</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>12700</v>
+      </c>
+      <c r="C25" s="4" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>负债合计</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>13303.1002739726</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>【权益】</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>权益合计</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>9779.0625</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>现金流量表</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>科目</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>金额(万元)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>公式</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>经营活动现金流</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>3443.871714611872</v>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>net_income + depreciation - ΔNWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>投资活动现金流</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>-1128.88</v>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>-capex</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>筹资活动现金流</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>-interest - dividend + Δdebt</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>现金净变动</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>2314.991714611872</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>OCF + ICF + FCF</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>期末现金</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>3114.991714611872</v>
+      </c>
+      <c r="C36" s="6" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>配平检验</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>✗ 不配平</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>差额: -1000.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1168,13 +1622,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,27 +1690,27 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>11.8%</t>
+          <t>11.80%</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>13.82%</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>15.7%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>17.48%</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>19.15%</t>
         </is>
       </c>
     </row>
@@ -1266,27 +1720,27 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>9.27%</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>11.33%</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>13.25%</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>15.05%</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>16.75%</t>
         </is>
       </c>
     </row>
@@ -1296,27 +1750,27 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>9.0%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>10.9%</t>
+          <t>10.92%</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>12.75%</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>14.5%</t>
+          <t>14.47%</t>
         </is>
       </c>
     </row>
@@ -1326,27 +1780,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.51%</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>10.5%</t>
+          <t>10.55%</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>12.3%</t>
+          <t>12.29%</t>
         </is>
       </c>
     </row>
@@ -1356,27 +1810,27 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.47%</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>6.52%</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>8.4%</t>
+          <t>8.43%</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>10.21%</t>
         </is>
       </c>
     </row>
@@ -1384,188 +1838,6 @@
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>MOIC 敏感性 (Entry vs Exit Multiple)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Entry \ Exit</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>7.0x</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>7.5x</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8.0x</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8.5x</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>9.0x</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>1.75x</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>1.91x</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>2.07x</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2.24x</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>2.40x</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>1.56x</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>1.71x</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>1.86x</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2.02x</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>2.17x</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>1.39x</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>1.54x</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>1.68x</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>1.82x</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>1.97x</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>1.25x</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>1.38x</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>1.52x</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>1.65x</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>1.79x</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>1.12x</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>1.24x</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>1.37x</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>1.50x</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>1.63x</t>
         </is>
       </c>
     </row>

--- a/examples/calpine_lbo/calpine_lbo_model.xlsx
+++ b/examples/calpine_lbo/calpine_lbo_model.xlsx
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>22082.1627739726</v>
+        <v>23082.1627739726</v>
       </c>
       <c r="C22" s="6" t="inlineStr"/>
     </row>
@@ -888,12 +888,12 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>✗ 不配平</t>
+          <t>✓ 配平</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>差额: -1000.00</t>
+          <t>差额: 0.00</t>
         </is>
       </c>
     </row>

--- a/examples/calpine_lbo/calpine_lbo_model.xlsx
+++ b/examples/calpine_lbo/calpine_lbo_model.xlsx
@@ -1628,7 +1628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,6 +1841,188 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Entry \ Exit</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>7.0x</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.5x</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0x</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.5x</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0x</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>1.75x</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>1.91x</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>2.07x</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>2.24x</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>2.40x</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>1.56x</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>1.71x</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>1.86x</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>2.02x</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>2.17x</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>1.39x</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>1.54x</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>1.68x</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>1.82x</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>1.97x</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>1.25x</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>1.38x</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>1.52x</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>1.65x</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>1.79x</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>1.12x</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>1.24x</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>1.37x</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>1.50x</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>1.63x</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
